--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_Practice\PetStoreUserAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5243B54-1E82-4634-A886-17D0130935C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5DB8CC-E8F8-44FB-8DBC-117BA8AF9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60FC4AEA-B9A9-4373-933F-31A4B3250A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>UserID</t>
   </si>
@@ -100,6 +101,75 @@
   </si>
   <si>
     <t>testuser3</t>
+  </si>
+  <si>
+    <t>Cat_Id</t>
+  </si>
+  <si>
+    <t>Cat_Name</t>
+  </si>
+  <si>
+    <t>Photourls</t>
+  </si>
+  <si>
+    <t>Tags_id</t>
+  </si>
+  <si>
+    <t>Pet_id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tags_name</t>
+  </si>
+  <si>
+    <t>tester1</t>
+  </si>
+  <si>
+    <t>tester2</t>
+  </si>
+  <si>
+    <t>tester3</t>
+  </si>
+  <si>
+    <t>tester1_cat</t>
+  </si>
+  <si>
+    <t>tester2_cat</t>
+  </si>
+  <si>
+    <t>tester3_cat</t>
+  </si>
+  <si>
+    <t>https://test1</t>
+  </si>
+  <si>
+    <t>https://test2</t>
+  </si>
+  <si>
+    <t>https://test3</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>tag2</t>
+  </si>
+  <si>
+    <t>tag3</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -474,7 +544,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,4 +655,136 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E88E23-8536-4675-83BA-E243C9CD83C3}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10011</v>
+      </c>
+      <c r="B2">
+        <v>20021</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>30031</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10012</v>
+      </c>
+      <c r="B3">
+        <v>20022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>30032</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10013</v>
+      </c>
+      <c r="B4">
+        <v>20023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>30033</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3B27BE78-7DA1-4E72-8883-8C09E9E5B5C6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8E6156F9-12AA-4364-950D-15AA8647A68C}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{9DA997E0-AAD1-418A-8486-47A1C24B2E4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>